--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,117 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2036FEE-460E-41BE-BFBE-8FA96AE16D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Empty HTML Element</t>
-  </si>
-  <si>
-    <t>Without Content and Closing Tag</t>
-  </si>
-  <si>
-    <t>Without Content, Tag Attributes and Closing Tag</t>
-  </si>
-  <si>
-    <t>Empty HTML Element must be without Tag Attributes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>14/12/20</t>
-  </si>
-  <si>
-    <t>&lt;img src="path"&gt; is Empty HTML Element</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>YesNo</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Multi</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -225,60 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -544,173 +529,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C3" pane="bottomLeft" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.19921875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="11" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="8" width="6.296875"/>
+    <col customWidth="1" max="4" min="4" style="8" width="2.19921875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="25.69921875"/>
+    <col customWidth="1" max="7" min="7" style="5" width="17.69921875"/>
+    <col customWidth="1" max="8" min="8" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Without Content and Closing Tag</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>Without Content, Tag Attributes and Closing Tag</t>
+        </is>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element must be without Tag Attributes</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" s="11" t="inlineStr">
+        <is>
+          <t>14/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>YesNo</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>43932</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11">
-        <v>43932</v>
-      </c>
+    <row customHeight="1" ht="27.6" r="6">
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="9" t="n"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>14</v>
-      </c>
+    <row customHeight="1" ht="27.6" r="7">
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="6" t="n"/>
     </row>
-    <row r="4" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="11">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="11">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+    <row r="8">
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,26 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C3" pane="bottomLeft" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="2.19921875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="8" width="6.296875"/>
-    <col customWidth="1" max="4" min="4" style="8" width="2.19921875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="25.69921875"/>
-    <col customWidth="1" max="7" min="7" style="5" width="17.69921875"/>
-    <col customWidth="1" max="8" min="8" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -566,36 +497,31 @@
       </c>
       <c r="C1" s="7" t="inlineStr">
         <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
           <t>P</t>
         </is>
       </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
       <c r="E1" s="4" t="inlineStr">
         <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
           <t>Right Answer</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>Wrong Answer</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Date Created</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="2">
+    <row r="2" ht="41.4" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -604,34 +530,29 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element</t>
+        </is>
+      </c>
       <c r="E2" s="6" t="inlineStr">
         <is>
-          <t>Empty HTML Element</t>
+          <t>Without Content and Closing Tag</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Without Content and Closing Tag</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
           <t>Without Content, Tag Attributes and Closing Tag</t>
         </is>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -640,36 +561,31 @@
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
           <t>B</t>
         </is>
       </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element must be without Tag Attributes</t>
+        </is>
+      </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>Empty HTML Element must be without Tag Attributes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" s="11" t="inlineStr">
+      <c r="G3" s="11" t="inlineStr">
         <is>
           <t>14/12/20</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -678,34 +594,29 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
           <t>A</t>
         </is>
       </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
+        </is>
+      </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="G4" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -714,50 +625,45 @@
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>YesNo</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
         </is>
       </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F5" s="9" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="G5" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
-      <c r="E6" s="6" t="n"/>
+    <row r="6" ht="27.6" customHeight="1">
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="9" t="n"/>
       <c r="F6" s="9" t="n"/>
-      <c r="G6" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="27.6" r="7">
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
+      <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="6" t="n"/>
     </row>
     <row r="8">
+      <c r="D8" s="6" t="n"/>
       <c r="E8" s="6" t="n"/>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" s="6" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,43 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myq\Questions\Programming Language\Html\Element\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F689C7B-E827-43DC-B6F1-5E6B2E6F5641}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Empty HTML Element</t>
+  </si>
+  <si>
+    <t>Without Content and Closing Tag</t>
+  </si>
+  <si>
+    <t>Without Content, Tag Attributes and Closing Tag</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Empty HTML Element must be without Tag Attributes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>14/12/20</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Opening Tag</t>
+  </si>
+  <si>
+    <t>16/01/21</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Closing Tag</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Content</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>&lt;img src="path"&gt; is Empty HTML Element</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
+  </si>
+  <si>
+    <t>Empty HTML Element may have Tag Attributes &lt;img src="path"&gt;</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,116 +237,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -529,209 +553,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col min="1" max="1" width="3.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.453125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.1796875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="41.4" customHeight="1">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Without Content and Closing Tag</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Without Content, Tag Attributes and Closing Tag</t>
-        </is>
-      </c>
-      <c r="G2" s="11" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11">
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element must be without Tag Attributes</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G3" s="11" t="inlineStr">
-        <is>
-          <t>14/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="n">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11">
         <v>43932</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
-      <c r="A5" s="3" t="n">
+    <row r="9" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" s="11" t="n">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11">
         <v>43932</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="9" t="n"/>
-      <c r="F6" s="9" t="n"/>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="6" t="n"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
-      <c r="F8" s="6" t="n"/>
+    <row r="10" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myq\Questions\Programming Language\Html\Element\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F689C7B-E827-43DC-B6F1-5E6B2E6F5641}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -70,12 +64,15 @@
     <t>14/12/20</t>
   </si>
   <si>
+    <t>Empty HTML Element may have Tag Attributes &lt;img src="path"&gt;</t>
+  </si>
+  <si>
+    <t>16/01/21</t>
+  </si>
+  <si>
     <t>Empty HTML Element is without Opening Tag</t>
   </si>
   <si>
-    <t>16/01/21</t>
-  </si>
-  <si>
     <t>Empty HTML Element is without Closing Tag</t>
   </si>
   <si>
@@ -89,38 +86,35 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
-  </si>
-  <si>
-    <t>Empty HTML Element may have Tag Attributes &lt;img src="path"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -234,60 +228,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -553,26 +538,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D5" pane="bottomLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.1796875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="11" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col customWidth="1" max="2" min="2" style="8" width="2.453125"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -595,11 +584,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+    <row customHeight="1" ht="41.4" r="2" spans="1:7">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -614,15 +603,15 @@
       <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="27.65" r="3" spans="1:7">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -641,18 +630,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="27.65" r="4" spans="1:7">
+      <c r="A4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>14</v>
@@ -664,18 +653,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row customHeight="1" ht="27.65" r="5" spans="1:7">
+      <c r="A5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
@@ -687,18 +676,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row customHeight="1" ht="27.65" r="6" spans="1:7">
+      <c r="A6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>14</v>
@@ -710,18 +699,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row customHeight="1" ht="27.65" r="7" spans="1:7">
+      <c r="A7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
@@ -733,18 +722,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row customHeight="1" ht="27.65" r="8" spans="1:7">
+      <c r="A8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
@@ -752,22 +741,22 @@
       <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+    <row customHeight="1" ht="27.65" r="9" spans="1:7">
+      <c r="A9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>13</v>
@@ -775,27 +764,27 @@
       <c r="F9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+    <row customHeight="1" ht="27.65" r="10" spans="1:7">
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="27.65" r="11" spans="1:7">
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="6" t="n"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -52,7 +52,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>Empty HTML Element must be without Tag Attributes</t>
+    <t>Empty HTML Element must be without Tag Attributes &lt;img src="path"&gt;</t>
   </si>
   <si>
     <t>No</t>
@@ -70,13 +70,13 @@
     <t>16/01/21</t>
   </si>
   <si>
-    <t>Empty HTML Element is without Opening Tag</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Closing Tag</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Content</t>
+    <t>Empty HTML Element is without Opening Tag &lt;img src="path"&gt;</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Closing Tag &lt;img src="path"&gt;</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Content &lt;img src="path"&gt;</t>
   </si>
   <si>
     <t>A</t>
@@ -546,8 +546,8 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D5" pane="bottomLeft" sqref="D5"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>

--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\Element\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB1FB57-CD88-4291-ABD9-42135AA56EBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -52,9 +58,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Empty HTML Element must be without Tag Attributes &lt;img src="path"&gt;</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -64,21 +67,9 @@
     <t>14/12/20</t>
   </si>
   <si>
-    <t>Empty HTML Element may have Tag Attributes &lt;img src="path"&gt;</t>
-  </si>
-  <si>
     <t>16/01/21</t>
   </si>
   <si>
-    <t>Empty HTML Element is without Opening Tag &lt;img src="path"&gt;</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Closing Tag &lt;img src="path"&gt;</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Content &lt;img src="path"&gt;</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -86,35 +77,53 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
+  </si>
+  <si>
+    <t>Empty HTML Element can nest other Elements within them</t>
+  </si>
+  <si>
+    <t>Empty HTML Element must be without Tag Attributes</t>
+  </si>
+  <si>
+    <t>Empty HTML Element may have Tag Attributes</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Opening Tag</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Closing Tag</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -228,51 +237,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -538,30 +556,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
-      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="2.453125"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.7265625"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,11 +598,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="2" spans="1:7">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="n">
+    <row r="2" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -603,188 +617,206 @@
       <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="11">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3" spans="1:7">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="4" spans="1:7">
-      <c r="A4" s="3" t="n">
+    </row>
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="5" spans="1:7">
-      <c r="A5" s="3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="6" spans="1:7">
-      <c r="A6" s="3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="7" spans="1:7">
-      <c r="A7" s="3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="8" spans="1:7">
-      <c r="A8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G9" s="11">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="9" spans="1:7">
-      <c r="A9" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9" t="s">
+    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>43932</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="10" spans="1:7">
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="9" t="n"/>
-      <c r="F10" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="27.65" r="11" spans="1:7">
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
-      <c r="F11" s="6" t="n"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
-      <c r="F12" s="6" t="n"/>
+      <c r="G10" s="11">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,129 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\Element\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB1FB57-CD88-4291-ABD9-42135AA56EBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Empty HTML Element</t>
-  </si>
-  <si>
-    <t>Without Content and Closing Tag</t>
-  </si>
-  <si>
-    <t>Without Content, Tag Attributes and Closing Tag</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>14/12/20</t>
-  </si>
-  <si>
-    <t>16/01/21</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>&lt;img src="path"&gt; is Empty HTML Element</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
-  </si>
-  <si>
-    <t>Empty HTML Element can nest other Elements within them</t>
-  </si>
-  <si>
-    <t>Empty HTML Element must be without Tag Attributes</t>
-  </si>
-  <si>
-    <t>Empty HTML Element may have Tag Attributes</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Opening Tag</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Closing Tag</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Content</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -240,57 +154,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -556,7 +461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
@@ -564,259 +473,355 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="41.4" customHeight="1">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Without Content and Closing Tag</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Without Content, Tag Attributes and Closing Tag</t>
+        </is>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element must be without Tag Attributes</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>14/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element may have Tag Attributes</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Opening Tag</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
+      <c r="A6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Closing Tag</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
+      <c r="A7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Content</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
+      <c r="A8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
+      <c r="A9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="B9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="11">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="11">
+    <row r="10" ht="27.6" customHeight="1">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element can nest other Elements within them</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" s="11" t="n">
         <v>44441</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+    <row r="11" ht="27.6" customHeight="1">
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
+      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,9 +589,9 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -552,9 +620,9 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -585,9 +653,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
-        <v>8</v>
+        <v>303</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -618,9 +686,9 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
@@ -651,9 +719,9 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -684,9 +752,9 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
-        <v>7</v>
+        <v>306</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
@@ -717,9 +785,9 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
-        <v>3</v>
+        <v>307</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
@@ -748,9 +816,9 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
-        <v>4</v>
+        <v>308</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
@@ -779,9 +847,9 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
-        <v>1</v>
+        <v>309</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
@@ -810,18 +878,9 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="6" t="n"/>
-      <c r="F11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
-      <c r="F12" s="6" t="n"/>
-    </row>
+    <row r="11"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -536,23 +468,23 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
-      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="2">
+    <row r="2" ht="41.4" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
@@ -620,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
@@ -653,7 +585,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
@@ -686,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>304</v>
       </c>
@@ -719,7 +651,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>305</v>
       </c>
@@ -752,7 +684,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>306</v>
       </c>
@@ -785,7 +717,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>307</v>
       </c>
@@ -816,7 +748,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>308</v>
       </c>
@@ -847,7 +779,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>309</v>
       </c>
@@ -880,7 +812,7 @@
     </row>
     <row r="11"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
+      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="2">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
@@ -585,7 +653,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
@@ -618,7 +686,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>304</v>
       </c>
@@ -651,7 +719,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>305</v>
       </c>
@@ -684,7 +752,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>306</v>
       </c>
@@ -717,7 +785,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>307</v>
       </c>
@@ -748,7 +816,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>308</v>
       </c>
@@ -779,7 +847,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>309</v>
       </c>
@@ -810,9 +878,8 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="11"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -534,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
@@ -878,6 +878,7 @@
         <v>44441</v>
       </c>
     </row>
+    <row r="11"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,23 +536,23 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
+      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="2">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
@@ -585,7 +653,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
@@ -618,7 +686,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>304</v>
       </c>
@@ -651,7 +719,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>305</v>
       </c>
@@ -684,7 +752,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>306</v>
       </c>
@@ -717,7 +785,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>307</v>
       </c>
@@ -748,7 +816,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>308</v>
       </c>
@@ -779,7 +847,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>309</v>
       </c>
@@ -812,7 +880,7 @@
     </row>
     <row r="11"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,25 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="1"/>
-      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="2">
+    <row r="2" ht="41.4" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
@@ -620,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
@@ -653,7 +585,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
@@ -686,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>304</v>
       </c>
@@ -719,7 +651,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>305</v>
       </c>
@@ -752,7 +684,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>306</v>
       </c>
@@ -785,7 +717,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>307</v>
       </c>
@@ -816,7 +748,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>308</v>
       </c>
@@ -847,7 +779,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>309</v>
       </c>
@@ -878,8 +810,9 @@
         <v>44441</v>
       </c>
     </row>
+    <row r="11"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -466,16 +466,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
     <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
     <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
@@ -590,73 +590,73 @@
         <v>303</v>
       </c>
       <c r="B4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element may have Tag Attributes</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" t="n">
+        <v>363</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element may have Tag Attributes</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="inlineStr">
-        <is>
-          <t>16/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
-      <c r="A5" s="3" t="n">
-        <v>304</v>
-      </c>
-      <c r="B5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Empty HTML Element is without Opening Tag</t>
+          <t>Empty HTML Element may have Tag Attributes (&lt;img src="path"&gt;)</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t>16/01/21</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200502</t>
         </is>
       </c>
     </row>
     <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
@@ -665,17 +665,17 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Empty HTML Element is without Closing Tag</t>
+          <t>Empty HTML Element is without Opening Tag</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G6" s="11" t="inlineStr">
@@ -685,8 +685,8 @@
       </c>
     </row>
     <row r="7" ht="27.6" customHeight="1">
-      <c r="A7" s="3" t="n">
-        <v>306</v>
+      <c r="A7" t="n">
+        <v>364</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
@@ -698,40 +698,40 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Empty HTML Element is without Content</t>
+          <t>Empty HTML Element is without Opening Tag (&lt;img src="path"&gt;)</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>16/01/21</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200502</t>
         </is>
       </c>
     </row>
     <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
+          <t>Empty HTML Element is without Closing Tag</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -744,74 +744,218 @@
           <t>No</t>
         </is>
       </c>
-      <c r="G8" s="11" t="n">
-        <v>43932</v>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
       </c>
     </row>
     <row r="9" ht="27.6" customHeight="1">
-      <c r="A9" s="3" t="n">
-        <v>308</v>
+      <c r="A9" t="n">
+        <v>365</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>43932</v>
+          <t>Empty HTML Element is without Closing Tag (&lt;img src="path"&gt;)</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200502</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
+        <v>306</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Content</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
+      <c r="A11" t="n">
+        <v>366</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Content (&lt;img src="path"&gt;)</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200502</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="27.6" customHeight="1">
+      <c r="A12" s="3" t="n">
+        <v>307</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
+      <c r="A13" s="3" t="n">
+        <v>308</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
+      <c r="A14" s="3" t="n">
         <v>309</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>Empty HTML Element can nest other Elements within them</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" s="11" t="n">
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" s="11" t="n">
         <v>44441</v>
       </c>
     </row>
-    <row r="11"/>
+    <row r="15"/>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>

--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="B1" pane="bottomLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="2">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
@@ -585,12 +653,12 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
@@ -618,12 +686,12 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>363</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
@@ -651,12 +719,12 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>304</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
@@ -684,12 +752,12 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>364</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
@@ -717,12 +785,12 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>305</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
@@ -750,12 +818,12 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>365</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
@@ -783,12 +851,12 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>306</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
@@ -816,12 +884,12 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>366</v>
       </c>
       <c r="B11" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
@@ -849,7 +917,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" s="3" t="n">
         <v>307</v>
       </c>
@@ -880,7 +948,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" s="3" t="n">
         <v>308</v>
       </c>
@@ -911,7 +979,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" s="3" t="n">
         <v>309</v>
       </c>
@@ -942,10 +1010,9 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -956,7 +1023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,25 +466,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="B1" pane="bottomLeft" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="2">
+    <row r="2" ht="41.4" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
@@ -620,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
@@ -653,7 +585,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
@@ -686,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>363</v>
       </c>
@@ -719,7 +651,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>304</v>
       </c>
@@ -752,7 +684,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>364</v>
       </c>
@@ -785,7 +717,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>305</v>
       </c>
@@ -818,7 +750,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>365</v>
       </c>
@@ -851,7 +783,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>306</v>
       </c>
@@ -884,7 +816,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>366</v>
       </c>
@@ -917,7 +849,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>307</v>
       </c>
@@ -948,7 +880,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" s="3" t="n">
         <v>308</v>
       </c>
@@ -979,7 +911,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>309</v>
       </c>
@@ -1010,9 +942,10 @@
         <v>44441</v>
       </c>
     </row>
+    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1023,7 +956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,25 +534,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="B1" pane="bottomLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="2">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
@@ -585,7 +653,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
@@ -618,7 +686,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>363</v>
       </c>
@@ -651,7 +719,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>304</v>
       </c>
@@ -684,7 +752,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>364</v>
       </c>
@@ -717,7 +785,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>305</v>
       </c>
@@ -750,7 +818,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>365</v>
       </c>
@@ -783,7 +851,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>306</v>
       </c>
@@ -816,7 +884,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>366</v>
       </c>
@@ -849,7 +917,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" s="3" t="n">
         <v>307</v>
       </c>
@@ -880,7 +948,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" s="3" t="n">
         <v>308</v>
       </c>
@@ -911,7 +979,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" s="3" t="n">
         <v>309</v>
       </c>
@@ -942,10 +1010,9 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -956,7 +1023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,10 +13,105 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Empty HTML Element</t>
+  </si>
+  <si>
+    <t>Without Content and Closing Tag</t>
+  </si>
+  <si>
+    <t>Without Content, Tag Attributes and Closing Tag</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Empty HTML Element must be without Tag Attributes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>14/12/20</t>
+  </si>
+  <si>
+    <t>Empty HTML Element may have Tag Attributes</t>
+  </si>
+  <si>
+    <t>16/01/21</t>
+  </si>
+  <si>
+    <t>Empty HTML Element may have Tag Attributes (&lt;img src="path"&gt;)</t>
+  </si>
+  <si>
+    <t>200502</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Opening Tag</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Opening Tag (&lt;img src="path"&gt;)</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Closing Tag</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Closing Tag (&lt;img src="path"&gt;)</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Content</t>
+  </si>
+  <si>
+    <t>Empty HTML Element is without Content (&lt;img src="path"&gt;)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>&lt;img src="path"&gt; is Empty HTML Element</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
+  </si>
+  <si>
+    <t>Empty HTML Element can nest other Elements within them</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +246,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -468,484 +563,348 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="B1" pane="bottomLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="41.4" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Without Content and Closing Tag</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Without Content, Tag Attributes and Closing Tag</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element must be without Tag Attributes</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G3" s="11" t="inlineStr">
-        <is>
-          <t>14/12/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element may have Tag Attributes</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="inlineStr">
-        <is>
-          <t>16/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" t="n">
         <v>363</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element may have Tag Attributes (&lt;img src="path"&gt;)</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200502</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="27.6" customHeight="1">
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>304</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element is without Opening Tag</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" s="11" t="inlineStr">
-        <is>
-          <t>16/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" t="n">
         <v>364</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element is without Opening Tag (&lt;img src="path"&gt;)</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200502</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="27.6" customHeight="1">
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>305</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element is without Closing Tag</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G8" s="11" t="inlineStr">
-        <is>
-          <t>16/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>365</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element is without Closing Tag (&lt;img src="path"&gt;)</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200502</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" s="3" t="n">
         <v>306</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element is without Content</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G10" s="11" t="inlineStr">
-        <is>
-          <t>16/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>366</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element is without Content (&lt;img src="path"&gt;)</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200502</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="27.6" customHeight="1">
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>307</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" s="3" t="n">
         <v>308</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
-        </is>
-      </c>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F13" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G13" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" s="3" t="n">
         <v>309</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Empty HTML Element can nest other Elements within them</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G14" s="11" t="n">
         <v>44441</v>
       </c>
     </row>
-    <row r="15"/>
+    <row r="15" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -956,7 +915,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,105 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Empty HTML Element</t>
-  </si>
-  <si>
-    <t>Without Content and Closing Tag</t>
-  </si>
-  <si>
-    <t>Without Content, Tag Attributes and Closing Tag</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Empty HTML Element must be without Tag Attributes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>14/12/20</t>
-  </si>
-  <si>
-    <t>Empty HTML Element may have Tag Attributes</t>
-  </si>
-  <si>
-    <t>16/01/21</t>
-  </si>
-  <si>
-    <t>Empty HTML Element may have Tag Attributes (&lt;img src="path"&gt;)</t>
-  </si>
-  <si>
-    <t>200502</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Opening Tag</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Opening Tag (&lt;img src="path"&gt;)</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Closing Tag</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Closing Tag (&lt;img src="path"&gt;)</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Content</t>
-  </si>
-  <si>
-    <t>Empty HTML Element is without Content (&lt;img src="path"&gt;)</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>&lt;img src="path"&gt; is Empty HTML Element</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
-  </si>
-  <si>
-    <t>Empty HTML Element can nest other Elements within them</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -246,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -563,348 +468,484 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="B1" pane="bottomLeft" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="41.4" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Without Content and Closing Tag</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Without Content, Tag Attributes and Closing Tag</t>
+        </is>
       </c>
       <c r="G2" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element must be without Tag Attributes</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>14/12/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element may have Tag Attributes</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>363</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element may have Tag Attributes (&lt;img src="path"&gt;)</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200502</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>304</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Opening Tag</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>364</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Opening Tag (&lt;img src="path"&gt;)</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200502</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>305</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Closing Tag</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>365</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Closing Tag (&lt;img src="path"&gt;)</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200502</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>306</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Content</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" s="11" t="inlineStr">
+        <is>
+          <t>16/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>366</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element is without Content (&lt;img src="path"&gt;)</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200502</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>307</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>&lt;img src="path"&gt; is Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G12" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" s="3" t="n">
         <v>308</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;img src="path"&gt;&lt;/b&gt; is Empty HTML Element</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G13" s="11" t="n">
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>309</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>14</v>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Empty HTML Element can nest other Elements within them</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G14" s="11" t="n">
         <v>44441</v>
       </c>
     </row>
-    <row r="15" spans="1:7"/>
+    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -915,7 +956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,23 +536,23 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="B1" pane="bottomLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
+    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="2">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
@@ -552,7 +620,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
@@ -585,7 +653,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
@@ -618,7 +686,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>363</v>
       </c>
@@ -651,7 +719,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>304</v>
       </c>
@@ -684,7 +752,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>364</v>
       </c>
@@ -717,7 +785,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>305</v>
       </c>
@@ -750,7 +818,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>365</v>
       </c>
@@ -783,7 +851,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>306</v>
       </c>
@@ -816,7 +884,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>366</v>
       </c>
@@ -849,7 +917,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" s="3" t="n">
         <v>307</v>
       </c>
@@ -880,7 +948,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" s="3" t="n">
         <v>308</v>
       </c>
@@ -911,7 +979,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" s="3" t="n">
         <v>309</v>
       </c>
@@ -945,7 +1013,7 @@
     <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -956,7 +1024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -536,23 +468,23 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="B1" pane="bottomLeft" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="2.5"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="25.69921875"/>
-    <col customWidth="1" max="6" min="6" style="5" width="17.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="2.5" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="25.69921875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.69921875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="2">
+    <row r="2" ht="41.4" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>301</v>
       </c>
@@ -620,7 +552,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>302</v>
       </c>
@@ -653,7 +585,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>303</v>
       </c>
@@ -686,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>363</v>
       </c>
@@ -719,7 +651,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>304</v>
       </c>
@@ -752,7 +684,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>364</v>
       </c>
@@ -785,7 +717,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>305</v>
       </c>
@@ -818,7 +750,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>365</v>
       </c>
@@ -851,7 +783,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>306</v>
       </c>
@@ -884,7 +816,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>366</v>
       </c>
@@ -917,7 +849,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>307</v>
       </c>
@@ -948,7 +880,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" s="3" t="n">
         <v>308</v>
       </c>
@@ -979,7 +911,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>309</v>
       </c>
@@ -1013,7 +945,7 @@
     <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1024,7 +956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -942,7 +1010,6 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">

--- a/Questions/Programming Language/Html/Element/Empty.xlsx
+++ b/Questions/Programming Language/Html/Element/Empty.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -534,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1010,6 +942,7 @@
         <v>44441</v>
       </c>
     </row>
+    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
